--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-682906.4073969866</v>
+        <v>-685565.9255089994</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>134.3863838833807</v>
+        <v>257.3842459652587</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>118.1376121075078</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>238.1514258160531</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>151.7222027933561</v>
       </c>
       <c r="D4" t="n">
-        <v>73.78868310316545</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.2048042594514</v>
+        <v>311.1730823765798</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>106.4659534935672</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>75.86763529130012</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>176.8921662683984</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0464929838984</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>63.33459172618416</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>4.680122792402396</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>119.456671712837</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>64.91921363453429</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>65.78783178799263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274537</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>218.6610218294556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>27.25908948141958</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>90.14863908058132</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881292</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652565</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.174086820818</v>
+        <v>626.9543636393346</v>
       </c>
       <c r="C2" t="n">
-        <v>1585.174086820818</v>
+        <v>626.9543636393346</v>
       </c>
       <c r="D2" t="n">
-        <v>1449.430264716393</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="E2" t="n">
-        <v>1063.642012118148</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="F2" t="n">
-        <v>652.6561073285409</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>236.9513570528297</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.313418796629</v>
+        <v>1403.693535679268</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820818</v>
+        <v>1013.554203703456</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2362.930966067699</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>420.5838509848373</v>
+        <v>204.5015368643224</v>
       </c>
       <c r="C4" t="n">
-        <v>420.5838509848373</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4519,19 +4519,19 @@
         <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263848</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="X4" t="n">
-        <v>641.3764301283675</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="Y4" t="n">
-        <v>420.5838509848373</v>
+        <v>386.1500016945621</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1798.734238163264</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C5" t="n">
-        <v>1429.771721222852</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="D5" t="n">
-        <v>1429.771721222852</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="E5" t="n">
-        <v>1043.983468624608</v>
+        <v>1080.608080184868</v>
       </c>
       <c r="F5" t="n">
-        <v>632.9975638350004</v>
+        <v>669.6221753952609</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163264</v>
+        <v>1852.996172847234</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193025</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507741</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.5776595052474</v>
+        <v>446.933583949963</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>277.9974010220561</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>127.8807616097204</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>127.8807616097204</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354872</v>
+        <v>667.7261630934931</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.2261243354872</v>
+        <v>446.933583949963</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1768.949738926587</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.987221986175</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D8" t="n">
-        <v>1399.987221986175</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>1014.198969387931</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400153</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005978</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270157</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926587</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926587</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926587</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1768.949738926587</v>
+        <v>652.5759934195828</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>168.0008189145195</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735138</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049854</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.39011576115</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>834.9321317361096</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>665.9959488082027</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8793093958669</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9662158134738</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>221.0762683155635</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361096</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>834.9321317361096</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>834.9321317361096</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372931</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450239</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326882</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502951</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523847</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672646</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346701</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203171</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.3164745246296</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>701.3802915967227</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>551.263652184387</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,46 +5440,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.757518498399</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.964939354869</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532803</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1976.192826467915</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.508338262028</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1432.091168225067</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.30903818352</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5938,22 +5938,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075811</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>408.6744289523867</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,25 +6236,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6552,13 +6552,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>84.94186588374788</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143851</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.9531451156648</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515155</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>182.8809404548975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>131.5796748624159</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.8267899150469</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.97729093373219</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>75.3754992116896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>80.64613085857654</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.3785887617905</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182135</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>67.52345255978852</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>198.4505659076176</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>75.37549921168753</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254694</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592851</v>
@@ -26323,16 +26323,16 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
         <v>242143.9799070019</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26341,13 +26341,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152035.0117225586</v>
+        <v>152035.0117225584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60039.49396962069</v>
+        <v>60039.49396962076</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618639</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,7 +26430,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,19 +26439,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.31242673195</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731958</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.1716898254</v>
+        <v>16108.1716898255</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.1716898254</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982544</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1060457.929859916</v>
+        <v>-1060783.274950197</v>
       </c>
       <c r="C6" t="n">
-        <v>19056.75825757664</v>
+        <v>19056.75825757667</v>
       </c>
       <c r="D6" t="n">
-        <v>19056.75825757679</v>
+        <v>19056.75825757635</v>
       </c>
       <c r="E6" t="n">
-        <v>-374581.3039681836</v>
+        <v>-374616.0418936187</v>
       </c>
       <c r="F6" t="n">
-        <v>132904.1376563628</v>
+        <v>132869.399730927</v>
       </c>
       <c r="G6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="H6" t="n">
-        <v>132904.1376563628</v>
+        <v>132869.3997309271</v>
       </c>
       <c r="I6" t="n">
-        <v>132904.1376563625</v>
+        <v>132869.3997309269</v>
       </c>
       <c r="J6" t="n">
-        <v>-34701.04015361989</v>
+        <v>-34735.77807905534</v>
       </c>
       <c r="K6" t="n">
-        <v>132904.1376563627</v>
+        <v>132869.399730927</v>
       </c>
       <c r="L6" t="n">
-        <v>132904.1376563628</v>
+        <v>132869.3997309271</v>
       </c>
       <c r="M6" t="n">
-        <v>-24994.76830701453</v>
+        <v>-24994.76830701456</v>
       </c>
       <c r="N6" t="n">
-        <v>127040.2434155443</v>
+        <v>127040.243415544</v>
       </c>
       <c r="O6" t="n">
         <v>127040.2434155442</v>
       </c>
       <c r="P6" t="n">
-        <v>127040.2434155442</v>
+        <v>127040.2434155441</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>220.2966577373023</v>
+        <v>97.29879565542421</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>15.52461830527176</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>202.3428985135026</v>
+        <v>100.3746203963742</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>60.78086760506062</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>69.55341273163113</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>205.8416753950822</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8295527578131</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>102.97200831862</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>221.0295325966348</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,73 +28090,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,34 +31686,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>305.6802133385886</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>201.4225882146024</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578699</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>117.9333660065822</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750476</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
